--- a/legislator/property/output/normal/江啟臣_2012-04-20_財產申報表_tmpe0681.xlsx
+++ b/legislator/property/output/normal/江啟臣_2012-04-20_財產申報表_tmpe0681.xlsx
@@ -21,9 +21,111 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="106">
-  <si>
-    <t>土地坐落</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="122">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>臺北市大同區延平段一小段03990000地號</t>
+  </si>
+  <si>
+    <t>臺北市大同區延平段一小段04000000地號</t>
+  </si>
+  <si>
+    <t>新北市新店區環河段04070000地號</t>
+  </si>
+  <si>
+    <t>新北市新店區環河段04070001地號</t>
+  </si>
+  <si>
+    <t>新北市新店區文山段06180000地號</t>
+  </si>
+  <si>
+    <t>360分之10</t>
+  </si>
+  <si>
+    <t>192分之7</t>
+  </si>
+  <si>
+    <t>100000分之121</t>
+  </si>
+  <si>
+    <t>10000分之1</t>
+  </si>
+  <si>
+    <t>劉姿伶</t>
+  </si>
+  <si>
+    <t>96年05月31曰</t>
+  </si>
+  <si>
+    <t>96年03月28日</t>
+  </si>
+  <si>
+    <t>96年07月05日</t>
+  </si>
+  <si>
+    <t>97年06月04日</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2012-04-20</t>
+  </si>
+  <si>
+    <t>江啟臣</t>
+  </si>
+  <si>
+    <t>tmpe0681</t>
+  </si>
+  <si>
+    <t>建物標示</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
@@ -44,64 +146,16 @@
     <t>取得價額</t>
   </si>
   <si>
-    <t>臺北市大同區延平段一小段 0399-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市大同區延平段一小段 0400-0000 地號</t>
-  </si>
-  <si>
-    <t>新北市新店區環河段0407-0000 地號</t>
-  </si>
-  <si>
-    <t>新北市新店區環河段0407-0001 地號</t>
-  </si>
-  <si>
-    <t>新北市新店區文山段0618-0000 地號</t>
-  </si>
-  <si>
-    <t>360分之10</t>
-  </si>
-  <si>
-    <t>192分之7</t>
-  </si>
-  <si>
-    <t>100000 分 之121</t>
-  </si>
-  <si>
-    <t>10000分之 1</t>
-  </si>
-  <si>
-    <t>劉姿伶</t>
-  </si>
-  <si>
-    <t>96年05月 31曰</t>
-  </si>
-  <si>
-    <t>96年03月 28日</t>
-  </si>
-  <si>
-    <t>96年07月 05日</t>
-  </si>
-  <si>
-    <t>97年06月 04日</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>新北市新店區環河段01378-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市大同區延平段一小段 00038-000 建號</t>
+    <t>新北市新店區環河段01378000建號</t>
+  </si>
+  <si>
+    <t>臺北市大同區延平段一小段00038000建號</t>
   </si>
   <si>
     <t>全部</t>
   </si>
   <si>
-    <t>96年03月 28 H</t>
+    <t>96年03月28H</t>
   </si>
   <si>
     <t>廠牌型號</t>
@@ -113,7 +167,7 @@
     <t>所有人</t>
   </si>
   <si>
-    <t>2005 本田 AOCORD V6</t>
+    <t>2005本田AOCORDV6</t>
   </si>
   <si>
     <t>95年06月</t>
@@ -176,9 +230,6 @@
     <t>美金</t>
   </si>
   <si>
-    <t>江啟臣</t>
-  </si>
-  <si>
     <t>名稱</t>
   </si>
   <si>
@@ -194,58 +245,55 @@
     <t>外幣幣別</t>
   </si>
   <si>
-    <t>聯博全球高收益 債券基金AT</t>
-  </si>
-  <si>
-    <t>富蘭克林坦伯頓 亞洲成長基金</t>
+    <t>聯博全球高收益債券基金AT</t>
+  </si>
+  <si>
+    <t>富蘭克林坦伯頓亞洲成長基金</t>
   </si>
   <si>
     <t>JF東協基金</t>
   </si>
   <si>
-    <t>摩根富林明環球 天然資源基金</t>
-  </si>
-  <si>
-    <t>貝萊德印度基金 A2</t>
-  </si>
-  <si>
-    <t>貝萊德中國基金 A2</t>
-  </si>
-  <si>
-    <t>柏瑞拉丁美洲中 小型公司股票基 金</t>
-  </si>
-  <si>
-    <t>富蘭克林坦伯頓 新興國家固定收 •^Tt1</t>
-  </si>
-  <si>
-    <t>摩根環球天然資 源</t>
-  </si>
-  <si>
-    <t>貝萊德拉丁美洲 基金A2</t>
-  </si>
-  <si>
-    <t>貝萊德世界能源 基金A2</t>
-  </si>
-  <si>
-    <t>天達環球能源基 金</t>
-  </si>
-  <si>
-    <t>貝萊德世界礦業 基金A2</t>
-  </si>
-  <si>
-    <t>富蘭克林坦伯頓 印度基金</t>
+    <t>摩根富林明環球天然資源基金</t>
+  </si>
+  <si>
+    <t>貝萊德印度基金A2</t>
+  </si>
+  <si>
+    <t>貝萊德中國基金A2</t>
+  </si>
+  <si>
+    <t>柏瑞拉丁美洲中小型公司股票基金</t>
+  </si>
+  <si>
+    <t>富蘭克林坦伯頓新興國家固定收Tt1</t>
+  </si>
+  <si>
+    <t>摩根環球天然資源</t>
+  </si>
+  <si>
+    <t>貝萊德拉丁美洲基金A2</t>
+  </si>
+  <si>
+    <t>貝萊德世界能源基金A2</t>
+  </si>
+  <si>
+    <t>天達環球能源基金</t>
+  </si>
+  <si>
+    <t>貝萊德世界礦業基金A2</t>
+  </si>
+  <si>
+    <t>富蘭克林坦伯頓印度基金</t>
   </si>
   <si>
     <t>群益葛萊美基金</t>
   </si>
   <si>
-    <t>富蘭克林高科技 基金</t>
-  </si>
-  <si>
-    <t>國泰世華商業 銀行</t>
-  </si>
-  <si>
-    <t>匯豐（台灣）商 業銀行</t>
+    <t>富蘭克林高科技基金</t>
+  </si>
+  <si>
+    <t>匯豐（台灣）商業銀行</t>
   </si>
   <si>
     <t>11.1.4</t>
@@ -254,7 +302,7 @@
     <t>財產種類</t>
   </si>
   <si>
-    <t>項/件</t>
+    <t>項件</t>
   </si>
   <si>
     <t>價額</t>
@@ -287,7 +335,7 @@
     <t>郵政簡易人壽步步高升保險</t>
   </si>
   <si>
-    <t>郵政簡易人壽六年期吉利保 險</t>
+    <t>郵政簡易人壽六年期吉利保險</t>
   </si>
   <si>
     <t>投資人</t>
@@ -320,22 +368,22 @@
     <t>兆崇建設股份有限公司</t>
   </si>
   <si>
-    <t>新北市新店區北新路一段 351號6樓</t>
+    <t>新北市新店區北新路一段351號6樓</t>
   </si>
   <si>
     <t>新北市新店區光明街156號</t>
   </si>
   <si>
-    <t>95年10月 26日</t>
-  </si>
-  <si>
-    <t>95年10月 19日</t>
-  </si>
-  <si>
-    <t>92年09月 01曰</t>
-  </si>
-  <si>
-    <t>99年04月 01曰</t>
+    <t>95年10月26日</t>
+  </si>
+  <si>
+    <t>95年10月19日</t>
+  </si>
+  <si>
+    <t>92年09月01曰</t>
+  </si>
+  <si>
+    <t>99年04月01曰</t>
   </si>
   <si>
     <t>投資</t>
@@ -697,13 +745,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -725,135 +773,261 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>3.31</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="H2" s="2">
         <v>416156</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1731</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>3.14</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="H3" s="2">
         <v>348540</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1731</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O3" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2">
         <v>13.75</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="H4" s="2">
         <v>797500</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1731</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O4" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2">
         <v>0.008</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="H5" s="2">
         <v>464</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1731</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O5" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2">
         <v>0.0102</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="H6" s="2">
         <v>357</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1731</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O6" s="2">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -871,25 +1045,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -897,22 +1071,22 @@
         <v>23</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="C2" s="2">
         <v>205.23</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="H2" s="2">
         <v>1314300</v>
@@ -923,22 +1097,22 @@
         <v>24</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="C3" s="2">
         <v>4.94</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="H3" s="2">
         <v>3467</v>
@@ -959,22 +1133,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -982,19 +1156,19 @@
         <v>34</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="C2" s="2">
         <v>2997</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="G2" s="2">
         <v>800000</v>
@@ -1015,22 +1189,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1038,16 +1212,16 @@
         <v>49</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
@@ -1059,16 +1233,16 @@
         <v>50</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
@@ -1080,16 +1254,16 @@
         <v>51</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
@@ -1101,16 +1275,16 @@
         <v>52</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
@@ -1122,16 +1296,16 @@
         <v>53</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
@@ -1143,16 +1317,16 @@
         <v>54</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
@@ -1164,16 +1338,16 @@
         <v>55</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
@@ -1185,16 +1359,16 @@
         <v>56</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2">
@@ -1206,16 +1380,16 @@
         <v>57</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2">
@@ -1227,16 +1401,16 @@
         <v>58</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2">
@@ -1248,16 +1422,16 @@
         <v>59</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2">
@@ -1269,16 +1443,16 @@
         <v>60</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2">
@@ -1290,16 +1464,16 @@
         <v>61</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2">
@@ -1311,16 +1485,16 @@
         <v>62</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2">
@@ -1332,16 +1506,16 @@
         <v>63</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F16" s="2">
         <v>2084.72</v>
@@ -1355,16 +1529,16 @@
         <v>64</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2">
@@ -1376,16 +1550,16 @@
         <v>65</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2">
@@ -1407,25 +1581,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1433,13 +1607,13 @@
         <v>82</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="E2" s="2">
         <v>1408.268</v>
@@ -1448,7 +1622,7 @@
         <v>4.47</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="H2" s="2">
         <v>185386</v>
@@ -1459,13 +1633,13 @@
         <v>83</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="E3" s="2">
         <v>2481.112</v>
@@ -1474,7 +1648,7 @@
         <v>4.47</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="H3" s="2">
         <v>326617</v>
@@ -1485,13 +1659,13 @@
         <v>84</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="E4" s="2">
         <v>316.525</v>
@@ -1500,7 +1674,7 @@
         <v>31.36</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="H4" s="2">
         <v>292327</v>
@@ -1511,13 +1685,13 @@
         <v>85</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="E5" s="2">
         <v>80.605</v>
@@ -1526,7 +1700,7 @@
         <v>103.3</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="H5" s="2">
         <v>245215</v>
@@ -1537,13 +1711,13 @@
         <v>86</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="E6" s="2">
         <v>162.779</v>
@@ -1552,7 +1726,7 @@
         <v>16.2</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="H6" s="2">
         <v>77660</v>
@@ -1563,13 +1737,13 @@
         <v>87</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="E7" s="2">
         <v>20.06</v>
@@ -1578,7 +1752,7 @@
         <v>102.87</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="H7" s="2">
         <v>60730</v>
@@ -1589,13 +1763,13 @@
         <v>88</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="E8" s="2">
         <v>72.64</v>
@@ -1604,7 +1778,7 @@
         <v>19.38</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="H8" s="2">
         <v>41430</v>
@@ -1615,22 +1789,22 @@
         <v>89</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="E9" s="2">
         <v>299.4</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="H9" s="2">
         <v>98215</v>
@@ -1641,13 +1815,13 @@
         <v>90</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="E10" s="2">
         <v>82.757</v>
@@ -1656,7 +1830,7 @@
         <v>16.8355</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="H10" s="2">
         <v>41023</v>
@@ -1667,13 +1841,13 @@
         <v>91</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="E11" s="2">
         <v>426.257</v>
@@ -1682,7 +1856,7 @@
         <v>11.35</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="H11" s="2">
         <v>142479</v>
@@ -1693,13 +1867,13 @@
         <v>92</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="E12" s="2">
         <v>222.646</v>
@@ -1708,7 +1882,7 @@
         <v>31.03</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="H12" s="2">
         <v>203470</v>
@@ -1719,13 +1893,13 @@
         <v>93</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="E13" s="2">
         <v>237.627</v>
@@ -1734,7 +1908,7 @@
         <v>15.67</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="H13" s="2">
         <v>109671</v>
@@ -1745,13 +1919,13 @@
         <v>94</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="E14" s="2">
         <v>41.37</v>
@@ -1760,7 +1934,7 @@
         <v>83.07</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="H14" s="2">
         <v>101219</v>
@@ -1771,13 +1945,13 @@
         <v>95</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="E15" s="2">
         <v>103.06</v>
@@ -1786,7 +1960,7 @@
         <v>22.86</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="H15" s="2">
         <v>69384</v>
@@ -1797,13 +1971,13 @@
         <v>96</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="E16" s="2">
         <v>171.58</v>
@@ -1812,7 +1986,7 @@
         <v>22.86</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="H16" s="2">
         <v>115502</v>
@@ -1823,13 +1997,13 @@
         <v>97</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="E17" s="2">
         <v>13.912</v>
@@ -1838,7 +2012,7 @@
         <v>275.47</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="H17" s="2">
         <v>112852</v>
@@ -1849,13 +2023,13 @@
         <v>98</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="E18" s="2">
         <v>58.02</v>
@@ -1864,7 +2038,7 @@
         <v>63.47</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="H18" s="2">
         <v>108464</v>
@@ -1875,13 +2049,13 @@
         <v>99</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="E19" s="2">
         <v>181.356</v>
@@ -1890,7 +2064,7 @@
         <v>21.67</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="H19" s="2">
         <v>115738</v>
@@ -1901,13 +2075,13 @@
         <v>101</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="E20" s="2">
         <v>766.2</v>
@@ -1916,7 +2090,7 @@
         <v>11.96</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="H20" s="2">
         <v>269850</v>
@@ -1927,13 +2101,13 @@
         <v>102</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="E21" s="2">
         <v>23.751</v>
@@ -1942,7 +2116,7 @@
         <v>32.95</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="H21" s="2">
         <v>23089</v>
@@ -1953,13 +2127,13 @@
         <v>103</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="E22" s="2">
         <v>77.02</v>
@@ -1968,7 +2142,7 @@
         <v>63.47</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="H22" s="2">
         <v>143951</v>
@@ -1989,16 +2163,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2006,13 +2180,13 @@
         <v>112</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="C2" s="2">
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E2" s="2">
         <v>220000</v>
@@ -2023,13 +2197,13 @@
         <v>113</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E3" s="2">
         <v>94080</v>
@@ -2050,16 +2224,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2067,13 +2241,13 @@
         <v>118</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="E2" s="2">
         <v>333840</v>
@@ -2084,13 +2258,13 @@
         <v>119</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="E3" s="2">
         <v>328000</v>
@@ -2111,22 +2285,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2134,22 +2308,22 @@
         <v>134</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="E2" s="2">
         <v>1215000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2157,22 +2331,22 @@
         <v>135</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="E3" s="2">
         <v>1500000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2180,22 +2354,22 @@
         <v>136</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="E4" s="2">
         <v>2500000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2203,22 +2377,22 @@
         <v>137</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="E5" s="2">
         <v>1500000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/江啟臣_2012-04-20_財產申報表_tmpe0681.xlsx
+++ b/legislator/property/output/normal/江啟臣_2012-04-20_財產申報表_tmpe0681.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="91">
   <si>
     <t>name</t>
   </si>
@@ -71,6 +71,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>臺北市大同區延平段一小段03990000地號</t>
+  </si>
+  <si>
     <t>臺北市大同區延平段一小段04000000地號</t>
   </si>
   <si>
@@ -83,6 +86,9 @@
     <t>新北市新店區文山段06180000地號</t>
   </si>
   <si>
+    <t>360分之10</t>
+  </si>
+  <si>
     <t>192分之7</t>
   </si>
   <si>
@@ -95,6 +101,9 @@
     <t>劉姿伶</t>
   </si>
   <si>
+    <t>96年05月31曰</t>
+  </si>
+  <si>
     <t>96年03月28日</t>
   </si>
   <si>
@@ -125,10 +134,10 @@
     <t>新北市新店區環河段01378000建號</t>
   </si>
   <si>
+    <t>臺北市大同區延平段一小段00038000建號</t>
+  </si>
+  <si>
     <t>全部</t>
-  </si>
-  <si>
-    <t>臺北市大同區延平段一小段00038000建號</t>
   </si>
   <si>
     <t>96年03月28H</t>
@@ -643,7 +652,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -701,213 +710,266 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>3.14</v>
+        <v>3.31</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H2" s="2">
-        <v>348540</v>
+        <v>416156</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M2" s="2">
         <v>1731</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="O2" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P2" s="2">
-        <v>0.0364583333333333</v>
+        <v>0.0277777777777778</v>
       </c>
       <c r="Q2" s="2">
-        <v>0.114479166666667</v>
+        <v>0.0919444444444444</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>13.75</v>
+        <v>3.14</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H3" s="2">
-        <v>797500</v>
+        <v>348540</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M3" s="2">
         <v>1731</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="O3" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P3" s="2">
-        <v>0.00121</v>
+        <v>0.0364583333333333</v>
       </c>
       <c r="Q3" s="2">
-        <v>0.0166375</v>
+        <v>0.114479166666667</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>0.008</v>
+        <v>13.75</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H4" s="2">
-        <v>464</v>
+        <v>797500</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M4" s="2">
         <v>1731</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="O4" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P4" s="2">
         <v>0.00121</v>
       </c>
       <c r="Q4" s="2">
-        <v>9.68e-06</v>
+        <v>0.0166375</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="2">
-        <v>0.0102</v>
+        <v>0.008</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H5" s="2">
-        <v>357</v>
+        <v>464</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M5" s="2">
         <v>1731</v>
       </c>
       <c r="N5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O5" s="2">
+        <v>17</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0.00121</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>9.68e-06</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="1">
+        <v>18</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.0102</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="2">
+        <v>357</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="O5" s="2">
+      <c r="K6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1731</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O6" s="2">
         <v>18</v>
       </c>
-      <c r="P5" s="2">
+      <c r="P6" s="2">
         <v>0.0001</v>
       </c>
-      <c r="Q5" s="2">
+      <c r="Q6" s="2">
         <v>1.02e-06</v>
       </c>
     </row>
@@ -918,7 +980,622 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:Q3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>23</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="2">
+        <v>205.23</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1314300</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1731</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O2" s="2">
+        <v>23</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>205.23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1">
+        <v>24</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="2">
+        <v>4.94</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="2">
+        <v>3467</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1731</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O3" s="2">
+        <v>24</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.0364583333333333</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>0.180104166666667</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2997</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="1">
+        <v>800000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>34</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2997</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="2">
+        <v>800000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1">
+        <v>4745947</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>49</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2">
+        <v>4745947</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>50</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2">
+        <v>2616299</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>51</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2">
+        <v>668336</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>52</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>53</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2">
+        <v>75103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>54</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2">
+        <v>500075</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <v>55</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2">
+        <v>15710</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
+        <v>56</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2">
+        <v>12270</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
+        <v>57</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2">
+        <v>153468</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
+        <v>58</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2">
+        <v>188120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
+        <v>59</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2">
+        <v>222237</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
+        <v>60</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2">
+        <v>695410</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1">
+        <v>61</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2">
+        <v>212669</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1">
+        <v>62</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1">
+        <v>63</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="2">
+        <v>2084.72</v>
+      </c>
+      <c r="G16" s="2">
+        <v>61395</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1">
+        <v>64</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2">
+        <v>2569</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1">
+        <v>65</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2">
+        <v>360747</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -926,1008 +1603,570 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="1">
-        <v>205.23</v>
+        <v>56</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>25</v>
+        <v>46</v>
+      </c>
+      <c r="E1" s="1">
+        <v>1408.268</v>
+      </c>
+      <c r="F1" s="1">
+        <v>4.47</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="H1" s="1">
-        <v>1314300</v>
+        <v>185386</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="2">
-        <v>4.94</v>
+        <v>56</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" s="2">
-        <v>3467</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:7">
-      <c r="B1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="1">
-        <v>2997</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" s="1">
-        <v>800000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1">
-        <v>4745947</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>50</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2">
-        <v>2616299</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>51</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2">
-        <v>668336</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
-        <v>52</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1">
-        <v>53</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2">
-        <v>75103</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1">
-        <v>54</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2">
-        <v>500075</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1">
-        <v>55</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2">
-        <v>15710</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1">
-        <v>56</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2">
-        <v>12270</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1">
-        <v>57</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2">
-        <v>153468</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="1">
-        <v>58</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2">
-        <v>188120</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="1">
-        <v>59</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2">
-        <v>222237</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="1">
-        <v>60</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2">
-        <v>695410</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="1">
-        <v>61</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2">
-        <v>212669</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="1">
-        <v>62</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="1">
-        <v>63</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F15" s="2">
-        <v>2084.72</v>
-      </c>
-      <c r="G15" s="2">
-        <v>61395</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="1">
-        <v>64</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2">
-        <v>2569</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="1">
-        <v>65</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2">
-        <v>360747</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="1">
+        <v>46</v>
+      </c>
+      <c r="E2" s="2">
         <v>1408.268</v>
-      </c>
-      <c r="F1" s="1">
-        <v>4.47</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H1" s="1">
-        <v>185386</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>83</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2" s="2">
-        <v>2481.112</v>
       </c>
       <c r="F2" s="2">
         <v>4.47</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H2" s="2">
-        <v>326617</v>
+        <v>185386</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E3" s="2">
-        <v>316.525</v>
+        <v>2481.112</v>
       </c>
       <c r="F3" s="2">
-        <v>31.36</v>
+        <v>4.47</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H3" s="2">
-        <v>292327</v>
+        <v>326617</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="2">
+        <v>316.525</v>
+      </c>
+      <c r="F4" s="2">
+        <v>31.36</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E4" s="2">
-        <v>80.605</v>
-      </c>
-      <c r="F4" s="2">
-        <v>103.3</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="H4" s="2">
-        <v>245215</v>
+        <v>292327</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E5" s="2">
-        <v>162.779</v>
+        <v>80.605</v>
       </c>
       <c r="F5" s="2">
-        <v>16.2</v>
+        <v>103.3</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H5" s="2">
-        <v>77660</v>
+        <v>245215</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="2">
+        <v>162.779</v>
+      </c>
+      <c r="F6" s="2">
+        <v>16.2</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="2">
-        <v>20.06</v>
-      </c>
-      <c r="F6" s="2">
-        <v>102.87</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="H6" s="2">
-        <v>60730</v>
+        <v>77660</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E7" s="2">
-        <v>72.64</v>
+        <v>20.06</v>
       </c>
       <c r="F7" s="2">
-        <v>19.38</v>
+        <v>102.87</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H7" s="2">
-        <v>41430</v>
+        <v>60730</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E8" s="2">
-        <v>299.4</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>70</v>
+        <v>72.64</v>
+      </c>
+      <c r="F8" s="2">
+        <v>19.38</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H8" s="2">
-        <v>98215</v>
+        <v>41430</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E9" s="2">
-        <v>82.757</v>
-      </c>
-      <c r="F9" s="2">
-        <v>16.8355</v>
+        <v>299.4</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H9" s="2">
-        <v>41023</v>
+        <v>98215</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E10" s="2">
-        <v>426.257</v>
+        <v>82.757</v>
       </c>
       <c r="F10" s="2">
-        <v>11.35</v>
+        <v>16.8355</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H10" s="2">
-        <v>142479</v>
+        <v>41023</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E11" s="2">
-        <v>222.646</v>
+        <v>426.257</v>
       </c>
       <c r="F11" s="2">
-        <v>31.03</v>
+        <v>11.35</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H11" s="2">
-        <v>203470</v>
+        <v>142479</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E12" s="2">
-        <v>237.627</v>
+        <v>222.646</v>
       </c>
       <c r="F12" s="2">
-        <v>15.67</v>
+        <v>31.03</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H12" s="2">
-        <v>109671</v>
+        <v>203470</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E13" s="2">
-        <v>41.37</v>
+        <v>237.627</v>
       </c>
       <c r="F13" s="2">
-        <v>83.07</v>
+        <v>15.67</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H13" s="2">
-        <v>101219</v>
+        <v>109671</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E14" s="2">
-        <v>103.06</v>
+        <v>41.37</v>
       </c>
       <c r="F14" s="2">
-        <v>22.86</v>
+        <v>83.07</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H14" s="2">
-        <v>69384</v>
+        <v>101219</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E15" s="2">
-        <v>171.58</v>
+        <v>103.06</v>
       </c>
       <c r="F15" s="2">
         <v>22.86</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H15" s="2">
-        <v>115502</v>
+        <v>69384</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E16" s="2">
-        <v>13.912</v>
+        <v>171.58</v>
       </c>
       <c r="F16" s="2">
-        <v>275.47</v>
+        <v>22.86</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H16" s="2">
-        <v>112852</v>
+        <v>115502</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E17" s="2">
-        <v>58.02</v>
+        <v>13.912</v>
       </c>
       <c r="F17" s="2">
-        <v>63.47</v>
+        <v>275.47</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H17" s="2">
-        <v>108464</v>
+        <v>112852</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E18" s="2">
-        <v>181.356</v>
+        <v>58.02</v>
       </c>
       <c r="F18" s="2">
-        <v>21.67</v>
+        <v>63.47</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H18" s="2">
-        <v>115738</v>
+        <v>108464</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E19" s="2">
-        <v>766.2</v>
+        <v>181.356</v>
       </c>
       <c r="F19" s="2">
-        <v>11.96</v>
+        <v>21.67</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H19" s="2">
-        <v>269850</v>
+        <v>115738</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E20" s="2">
-        <v>23.751</v>
+        <v>766.2</v>
       </c>
       <c r="F20" s="2">
-        <v>32.95</v>
+        <v>11.96</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="H20" s="2">
-        <v>23089</v>
+        <v>269850</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="1">
+        <v>102</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" s="2">
+        <v>23.751</v>
+      </c>
+      <c r="F21" s="2">
+        <v>32.95</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H21" s="2">
+        <v>23089</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="1">
         <v>103</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E21" s="2">
+      <c r="B22" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E22" s="2">
         <v>77.02</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F22" s="2">
         <v>63.47</v>
       </c>
-      <c r="G21" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H21" s="2">
+      <c r="G22" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H22" s="2">
         <v>143951</v>
       </c>
     </row>
@@ -1938,51 +2177,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="B1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C1" s="1">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="1">
-        <v>220000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1">
-        <v>113</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="2">
-        <v>94080</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1992,11 +2187,72 @@
       <c r="B1" s="1" t="s">
         <v>74</v>
       </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1">
+        <v>220000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1">
+        <v>112</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="2">
+        <v>220000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1">
+        <v>113</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="2">
+        <v>94080</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="B1" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="C1" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E1" s="1">
         <v>333840</v>
@@ -2004,18 +2260,35 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
+        <v>118</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="2">
+        <v>333840</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1">
         <v>119</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="2">
+      <c r="B3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="2">
         <v>328000</v>
       </c>
     </row>
@@ -2026,7 +2299,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2034,91 +2307,114 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E1" s="1">
         <v>1215000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="E2" s="2">
-        <v>1500000</v>
+        <v>1215000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E3" s="2">
-        <v>2500000</v>
+        <v>1500000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
+        <v>136</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E4" s="2">
+        <v>2500000</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
         <v>137</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="B5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1500000</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E4" s="2">
-        <v>1500000</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/江啟臣_2012-04-20_財產申報表_tmpe0681.xlsx
+++ b/legislator/property/output/normal/江啟臣_2012-04-20_財產申報表_tmpe0681.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="92">
   <si>
     <t>name</t>
   </si>
@@ -141,6 +141,9 @@
   </si>
   <si>
     <t>96年03月28H</t>
+  </si>
+  <si>
+    <t>capacity</t>
   </si>
   <si>
     <t>2005本田AOCORDV6</t>
@@ -1149,38 +1152,59 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="1">
-        <v>2997</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="1">
+        <v>34</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" s="1">
-        <v>800000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>34</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="C2" s="2">
         <v>2997</v>
@@ -1189,13 +1213,34 @@
         <v>25</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>30</v>
       </c>
       <c r="G2" s="2">
         <v>800000</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1731</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" s="2">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1213,13 +1258,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>34</v>
@@ -1234,13 +1279,13 @@
         <v>49</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>34</v>
@@ -1255,13 +1300,13 @@
         <v>50</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>34</v>
@@ -1276,13 +1321,13 @@
         <v>51</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>34</v>
@@ -1297,13 +1342,13 @@
         <v>52</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>34</v>
@@ -1318,13 +1363,13 @@
         <v>53</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>34</v>
@@ -1339,13 +1384,13 @@
         <v>54</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>34</v>
@@ -1360,13 +1405,13 @@
         <v>55</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>25</v>
@@ -1381,13 +1426,13 @@
         <v>56</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>25</v>
@@ -1402,13 +1447,13 @@
         <v>57</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>25</v>
@@ -1423,13 +1468,13 @@
         <v>58</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>25</v>
@@ -1444,13 +1489,13 @@
         <v>59</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>25</v>
@@ -1465,13 +1510,13 @@
         <v>60</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>25</v>
@@ -1486,13 +1531,13 @@
         <v>61</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>25</v>
@@ -1507,13 +1552,13 @@
         <v>62</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>25</v>
@@ -1528,13 +1573,13 @@
         <v>63</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>25</v>
@@ -1551,13 +1596,13 @@
         <v>64</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>25</v>
@@ -1572,13 +1617,13 @@
         <v>65</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>25</v>
@@ -1603,13 +1648,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E1" s="1">
         <v>1408.268</v>
@@ -1618,7 +1663,7 @@
         <v>4.47</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H1" s="1">
         <v>185386</v>
@@ -1629,13 +1674,13 @@
         <v>82</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E2" s="2">
         <v>1408.268</v>
@@ -1644,7 +1689,7 @@
         <v>4.47</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H2" s="2">
         <v>185386</v>
@@ -1655,13 +1700,13 @@
         <v>83</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E3" s="2">
         <v>2481.112</v>
@@ -1670,7 +1715,7 @@
         <v>4.47</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H3" s="2">
         <v>326617</v>
@@ -1681,13 +1726,13 @@
         <v>84</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E4" s="2">
         <v>316.525</v>
@@ -1696,7 +1741,7 @@
         <v>31.36</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H4" s="2">
         <v>292327</v>
@@ -1707,13 +1752,13 @@
         <v>85</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E5" s="2">
         <v>80.605</v>
@@ -1722,7 +1767,7 @@
         <v>103.3</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H5" s="2">
         <v>245215</v>
@@ -1733,13 +1778,13 @@
         <v>86</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E6" s="2">
         <v>162.779</v>
@@ -1748,7 +1793,7 @@
         <v>16.2</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H6" s="2">
         <v>77660</v>
@@ -1759,13 +1804,13 @@
         <v>87</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E7" s="2">
         <v>20.06</v>
@@ -1774,7 +1819,7 @@
         <v>102.87</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H7" s="2">
         <v>60730</v>
@@ -1785,13 +1830,13 @@
         <v>88</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E8" s="2">
         <v>72.64</v>
@@ -1800,7 +1845,7 @@
         <v>19.38</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H8" s="2">
         <v>41430</v>
@@ -1811,22 +1856,22 @@
         <v>89</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E9" s="2">
         <v>299.4</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H9" s="2">
         <v>98215</v>
@@ -1837,13 +1882,13 @@
         <v>90</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E10" s="2">
         <v>82.757</v>
@@ -1852,7 +1897,7 @@
         <v>16.8355</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H10" s="2">
         <v>41023</v>
@@ -1863,13 +1908,13 @@
         <v>91</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E11" s="2">
         <v>426.257</v>
@@ -1878,7 +1923,7 @@
         <v>11.35</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H11" s="2">
         <v>142479</v>
@@ -1889,13 +1934,13 @@
         <v>92</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E12" s="2">
         <v>222.646</v>
@@ -1904,7 +1949,7 @@
         <v>31.03</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H12" s="2">
         <v>203470</v>
@@ -1915,13 +1960,13 @@
         <v>93</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E13" s="2">
         <v>237.627</v>
@@ -1930,7 +1975,7 @@
         <v>15.67</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H13" s="2">
         <v>109671</v>
@@ -1941,13 +1986,13 @@
         <v>94</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E14" s="2">
         <v>41.37</v>
@@ -1956,7 +2001,7 @@
         <v>83.07</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H14" s="2">
         <v>101219</v>
@@ -1967,13 +2012,13 @@
         <v>95</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E15" s="2">
         <v>103.06</v>
@@ -1982,7 +2027,7 @@
         <v>22.86</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H15" s="2">
         <v>69384</v>
@@ -1993,13 +2038,13 @@
         <v>96</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E16" s="2">
         <v>171.58</v>
@@ -2008,7 +2053,7 @@
         <v>22.86</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H16" s="2">
         <v>115502</v>
@@ -2019,13 +2064,13 @@
         <v>97</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E17" s="2">
         <v>13.912</v>
@@ -2034,7 +2079,7 @@
         <v>275.47</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H17" s="2">
         <v>112852</v>
@@ -2045,13 +2090,13 @@
         <v>98</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E18" s="2">
         <v>58.02</v>
@@ -2060,7 +2105,7 @@
         <v>63.47</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H18" s="2">
         <v>108464</v>
@@ -2071,13 +2116,13 @@
         <v>99</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E19" s="2">
         <v>181.356</v>
@@ -2086,7 +2131,7 @@
         <v>21.67</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H19" s="2">
         <v>115738</v>
@@ -2097,13 +2142,13 @@
         <v>101</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E20" s="2">
         <v>766.2</v>
@@ -2112,7 +2157,7 @@
         <v>11.96</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H20" s="2">
         <v>269850</v>
@@ -2123,13 +2168,13 @@
         <v>102</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E21" s="2">
         <v>23.751</v>
@@ -2138,7 +2183,7 @@
         <v>32.95</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H21" s="2">
         <v>23089</v>
@@ -2149,13 +2194,13 @@
         <v>103</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E22" s="2">
         <v>77.02</v>
@@ -2164,7 +2209,7 @@
         <v>63.47</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H22" s="2">
         <v>143951</v>
@@ -2185,7 +2230,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C1" s="1">
         <v>2</v>
@@ -2202,7 +2247,7 @@
         <v>112</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C2" s="2">
         <v>2</v>
@@ -2219,10 +2264,10 @@
         <v>113</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>25</v>
@@ -2246,10 +2291,10 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>34</v>
@@ -2263,10 +2308,10 @@
         <v>118</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>34</v>
@@ -2280,10 +2325,10 @@
         <v>119</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>34</v>
@@ -2310,19 +2355,19 @@
         <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E1" s="1">
         <v>1215000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2333,19 +2378,19 @@
         <v>25</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E2" s="2">
         <v>1215000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2356,19 +2401,19 @@
         <v>25</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E3" s="2">
         <v>1500000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2379,19 +2424,19 @@
         <v>25</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E4" s="2">
         <v>2500000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2402,19 +2447,19 @@
         <v>25</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E5" s="2">
         <v>1500000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/江啟臣_2012-04-20_財產申報表_tmpe0681.xlsx
+++ b/legislator/property/output/normal/江啟臣_2012-04-20_財產申報表_tmpe0681.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="94">
   <si>
     <t>name</t>
   </si>
@@ -143,6 +143,9 @@
     <t>96年03月28H</t>
   </si>
   <si>
+    <t>building</t>
+  </si>
+  <si>
     <t>capacity</t>
   </si>
   <si>
@@ -150,6 +153,9 @@
   </si>
   <si>
     <t>95年06月</t>
+  </si>
+  <si>
+    <t>car</t>
   </si>
   <si>
     <t>中華郵政股份有限公司</t>
@@ -1065,7 +1071,7 @@
         <v>1314300</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>32</v>
@@ -1118,7 +1124,7 @@
         <v>3467</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>32</v>
@@ -1163,7 +1169,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1204,7 +1210,7 @@
         <v>34</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C2" s="2">
         <v>2997</v>
@@ -1213,7 +1219,7 @@
         <v>25</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>30</v>
@@ -1222,7 +1228,7 @@
         <v>800000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>32</v>
@@ -1258,13 +1264,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>34</v>
@@ -1279,13 +1285,13 @@
         <v>49</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>34</v>
@@ -1300,13 +1306,13 @@
         <v>50</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>34</v>
@@ -1321,13 +1327,13 @@
         <v>51</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>34</v>
@@ -1342,13 +1348,13 @@
         <v>52</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>34</v>
@@ -1363,13 +1369,13 @@
         <v>53</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>34</v>
@@ -1384,13 +1390,13 @@
         <v>54</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>34</v>
@@ -1405,13 +1411,13 @@
         <v>55</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>25</v>
@@ -1426,13 +1432,13 @@
         <v>56</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>25</v>
@@ -1447,13 +1453,13 @@
         <v>57</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>25</v>
@@ -1468,13 +1474,13 @@
         <v>58</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>25</v>
@@ -1489,13 +1495,13 @@
         <v>59</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>25</v>
@@ -1510,13 +1516,13 @@
         <v>60</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>25</v>
@@ -1531,13 +1537,13 @@
         <v>61</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>25</v>
@@ -1552,13 +1558,13 @@
         <v>62</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>25</v>
@@ -1573,13 +1579,13 @@
         <v>63</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>25</v>
@@ -1596,13 +1602,13 @@
         <v>64</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>25</v>
@@ -1617,13 +1623,13 @@
         <v>65</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>25</v>
@@ -1648,13 +1654,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E1" s="1">
         <v>1408.268</v>
@@ -1663,7 +1669,7 @@
         <v>4.47</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H1" s="1">
         <v>185386</v>
@@ -1674,13 +1680,13 @@
         <v>82</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E2" s="2">
         <v>1408.268</v>
@@ -1689,7 +1695,7 @@
         <v>4.47</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H2" s="2">
         <v>185386</v>
@@ -1700,13 +1706,13 @@
         <v>83</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E3" s="2">
         <v>2481.112</v>
@@ -1715,7 +1721,7 @@
         <v>4.47</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H3" s="2">
         <v>326617</v>
@@ -1726,13 +1732,13 @@
         <v>84</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E4" s="2">
         <v>316.525</v>
@@ -1741,7 +1747,7 @@
         <v>31.36</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H4" s="2">
         <v>292327</v>
@@ -1752,13 +1758,13 @@
         <v>85</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E5" s="2">
         <v>80.605</v>
@@ -1767,7 +1773,7 @@
         <v>103.3</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H5" s="2">
         <v>245215</v>
@@ -1778,13 +1784,13 @@
         <v>86</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E6" s="2">
         <v>162.779</v>
@@ -1793,7 +1799,7 @@
         <v>16.2</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H6" s="2">
         <v>77660</v>
@@ -1804,13 +1810,13 @@
         <v>87</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E7" s="2">
         <v>20.06</v>
@@ -1819,7 +1825,7 @@
         <v>102.87</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H7" s="2">
         <v>60730</v>
@@ -1830,13 +1836,13 @@
         <v>88</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E8" s="2">
         <v>72.64</v>
@@ -1845,7 +1851,7 @@
         <v>19.38</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H8" s="2">
         <v>41430</v>
@@ -1856,22 +1862,22 @@
         <v>89</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E9" s="2">
         <v>299.4</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H9" s="2">
         <v>98215</v>
@@ -1882,13 +1888,13 @@
         <v>90</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E10" s="2">
         <v>82.757</v>
@@ -1897,7 +1903,7 @@
         <v>16.8355</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H10" s="2">
         <v>41023</v>
@@ -1908,13 +1914,13 @@
         <v>91</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E11" s="2">
         <v>426.257</v>
@@ -1923,7 +1929,7 @@
         <v>11.35</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H11" s="2">
         <v>142479</v>
@@ -1934,13 +1940,13 @@
         <v>92</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E12" s="2">
         <v>222.646</v>
@@ -1949,7 +1955,7 @@
         <v>31.03</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H12" s="2">
         <v>203470</v>
@@ -1960,13 +1966,13 @@
         <v>93</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E13" s="2">
         <v>237.627</v>
@@ -1975,7 +1981,7 @@
         <v>15.67</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H13" s="2">
         <v>109671</v>
@@ -1986,13 +1992,13 @@
         <v>94</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E14" s="2">
         <v>41.37</v>
@@ -2001,7 +2007,7 @@
         <v>83.07</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H14" s="2">
         <v>101219</v>
@@ -2012,13 +2018,13 @@
         <v>95</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E15" s="2">
         <v>103.06</v>
@@ -2027,7 +2033,7 @@
         <v>22.86</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H15" s="2">
         <v>69384</v>
@@ -2038,13 +2044,13 @@
         <v>96</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E16" s="2">
         <v>171.58</v>
@@ -2053,7 +2059,7 @@
         <v>22.86</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H16" s="2">
         <v>115502</v>
@@ -2064,13 +2070,13 @@
         <v>97</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E17" s="2">
         <v>13.912</v>
@@ -2079,7 +2085,7 @@
         <v>275.47</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H17" s="2">
         <v>112852</v>
@@ -2090,13 +2096,13 @@
         <v>98</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E18" s="2">
         <v>58.02</v>
@@ -2105,7 +2111,7 @@
         <v>63.47</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H18" s="2">
         <v>108464</v>
@@ -2116,13 +2122,13 @@
         <v>99</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E19" s="2">
         <v>181.356</v>
@@ -2131,7 +2137,7 @@
         <v>21.67</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H19" s="2">
         <v>115738</v>
@@ -2142,13 +2148,13 @@
         <v>101</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E20" s="2">
         <v>766.2</v>
@@ -2157,7 +2163,7 @@
         <v>11.96</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H20" s="2">
         <v>269850</v>
@@ -2168,13 +2174,13 @@
         <v>102</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E21" s="2">
         <v>23.751</v>
@@ -2183,7 +2189,7 @@
         <v>32.95</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H21" s="2">
         <v>23089</v>
@@ -2194,13 +2200,13 @@
         <v>103</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E22" s="2">
         <v>77.02</v>
@@ -2209,7 +2215,7 @@
         <v>63.47</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H22" s="2">
         <v>143951</v>
@@ -2230,7 +2236,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C1" s="1">
         <v>2</v>
@@ -2247,7 +2253,7 @@
         <v>112</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C2" s="2">
         <v>2</v>
@@ -2264,10 +2270,10 @@
         <v>113</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>25</v>
@@ -2291,10 +2297,10 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>34</v>
@@ -2308,10 +2314,10 @@
         <v>118</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>34</v>
@@ -2325,10 +2331,10 @@
         <v>119</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>34</v>
@@ -2355,19 +2361,19 @@
         <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E1" s="1">
         <v>1215000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2378,19 +2384,19 @@
         <v>25</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E2" s="2">
         <v>1215000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2401,19 +2407,19 @@
         <v>25</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E3" s="2">
         <v>1500000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2424,19 +2430,19 @@
         <v>25</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E4" s="2">
         <v>2500000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2447,19 +2453,19 @@
         <v>25</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E5" s="2">
         <v>1500000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/江啟臣_2012-04-20_財產申報表_tmpe0681.xlsx
+++ b/legislator/property/output/normal/江啟臣_2012-04-20_財產申報表_tmpe0681.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="98">
   <si>
     <t>name</t>
   </si>
@@ -158,46 +158,58 @@
     <t>car</t>
   </si>
   <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>中華郵政股份有限公司</t>
   </si>
   <si>
+    <t>中國信託商業銀行</t>
+  </si>
+  <si>
+    <t>國泰世華商業銀行</t>
+  </si>
+  <si>
+    <t>臺灣銀行</t>
+  </si>
+  <si>
+    <t>匯豐(台灣)商業銀行</t>
+  </si>
+  <si>
+    <t>台新國際商業銀行</t>
+  </si>
+  <si>
+    <t>彰化商業銀行</t>
+  </si>
+  <si>
+    <t>合作金庫商業銀行</t>
+  </si>
+  <si>
+    <t>台北富邦商業銀行</t>
+  </si>
+  <si>
     <t>活期存款</t>
   </si>
   <si>
+    <t>活期儲蓄存款</t>
+  </si>
+  <si>
+    <t>綜合存款</t>
+  </si>
+  <si>
     <t>新臺幣</t>
   </si>
   <si>
-    <t>中國信託商業銀行</t>
-  </si>
-  <si>
-    <t>國泰世華商業銀行</t>
-  </si>
-  <si>
-    <t>臺灣銀行</t>
-  </si>
-  <si>
-    <t>匯豐(台灣)商業銀行</t>
-  </si>
-  <si>
-    <t>台新國際商業銀行</t>
-  </si>
-  <si>
-    <t>彰化商業銀行</t>
-  </si>
-  <si>
-    <t>合作金庫商業銀行</t>
-  </si>
-  <si>
-    <t>台北富邦商業銀行</t>
-  </si>
-  <si>
-    <t>活期儲蓄存款</t>
-  </si>
-  <si>
-    <t>綜合存款</t>
-  </si>
-  <si>
     <t>美金</t>
+  </si>
+  <si>
+    <t>deposit</t>
   </si>
   <si>
     <t>聯博全球高收益債券基金AT</t>
@@ -1256,13 +1268,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>45</v>
       </c>
@@ -1273,370 +1285,728 @@
         <v>47</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1">
-        <v>4745947</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>49</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2">
+      <c r="F2" s="2">
         <v>4745947</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="G2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1731</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>50</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2">
+      <c r="F3" s="2">
         <v>2616299</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="G3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1731</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M3" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>51</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2">
+      <c r="F4" s="2">
         <v>668336</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="G4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1731</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M4" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>52</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2">
+      <c r="F5" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="G5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1731</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M5" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>53</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2">
+      <c r="F6" s="2">
         <v>75103</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="G6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1731</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M6" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>54</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2">
+      <c r="F7" s="2">
         <v>500075</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="G7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1731</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M7" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>55</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2">
+      <c r="F8" s="2">
         <v>15710</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="G8" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1731</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M8" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>56</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="2">
+        <v>12270</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K9" s="2">
+        <v>1731</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M9" s="2">
         <v>56</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2">
-        <v>12270</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>57</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2">
+      <c r="F10" s="2">
         <v>153468</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="G10" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K10" s="2">
+        <v>1731</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M10" s="2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>58</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2">
+      <c r="F11" s="2">
         <v>188120</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="G11" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K11" s="2">
+        <v>1731</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M11" s="2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>59</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2">
+      <c r="F12" s="2">
         <v>222237</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="G12" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K12" s="2">
+        <v>1731</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M12" s="2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>60</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2">
+      <c r="F13" s="2">
         <v>695410</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="G13" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K13" s="2">
+        <v>1731</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M13" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>61</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2">
+      <c r="F14" s="2">
         <v>212669</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="G14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K14" s="2">
+        <v>1731</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M14" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>62</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2">
+      <c r="F15" s="2">
         <v>773</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="G15" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K15" s="2">
+        <v>1731</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M15" s="2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>63</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F16" s="2">
-        <v>2084.72</v>
-      </c>
-      <c r="G16" s="2">
         <v>61395</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="G16" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K16" s="2">
+        <v>1731</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M16" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>64</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2">
+      <c r="F17" s="2">
         <v>2569</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="G17" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K17" s="2">
+        <v>1731</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M17" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>65</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2">
+      <c r="F18" s="2">
         <v>360747</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K18" s="2">
+        <v>1731</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M18" s="2">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1654,13 +2024,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E1" s="1">
         <v>1408.268</v>
@@ -1669,7 +2039,7 @@
         <v>4.47</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H1" s="1">
         <v>185386</v>
@@ -1680,13 +2050,13 @@
         <v>82</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E2" s="2">
         <v>1408.268</v>
@@ -1695,7 +2065,7 @@
         <v>4.47</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H2" s="2">
         <v>185386</v>
@@ -1706,13 +2076,13 @@
         <v>83</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E3" s="2">
         <v>2481.112</v>
@@ -1721,7 +2091,7 @@
         <v>4.47</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H3" s="2">
         <v>326617</v>
@@ -1732,13 +2102,13 @@
         <v>84</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E4" s="2">
         <v>316.525</v>
@@ -1747,7 +2117,7 @@
         <v>31.36</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H4" s="2">
         <v>292327</v>
@@ -1758,13 +2128,13 @@
         <v>85</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E5" s="2">
         <v>80.605</v>
@@ -1773,7 +2143,7 @@
         <v>103.3</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H5" s="2">
         <v>245215</v>
@@ -1784,13 +2154,13 @@
         <v>86</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E6" s="2">
         <v>162.779</v>
@@ -1799,7 +2169,7 @@
         <v>16.2</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H6" s="2">
         <v>77660</v>
@@ -1810,13 +2180,13 @@
         <v>87</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E7" s="2">
         <v>20.06</v>
@@ -1825,7 +2195,7 @@
         <v>102.87</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H7" s="2">
         <v>60730</v>
@@ -1836,13 +2206,13 @@
         <v>88</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E8" s="2">
         <v>72.64</v>
@@ -1851,7 +2221,7 @@
         <v>19.38</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H8" s="2">
         <v>41430</v>
@@ -1862,22 +2232,22 @@
         <v>89</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E9" s="2">
         <v>299.4</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H9" s="2">
         <v>98215</v>
@@ -1888,13 +2258,13 @@
         <v>90</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E10" s="2">
         <v>82.757</v>
@@ -1903,7 +2273,7 @@
         <v>16.8355</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H10" s="2">
         <v>41023</v>
@@ -1914,13 +2284,13 @@
         <v>91</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E11" s="2">
         <v>426.257</v>
@@ -1929,7 +2299,7 @@
         <v>11.35</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H11" s="2">
         <v>142479</v>
@@ -1940,13 +2310,13 @@
         <v>92</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E12" s="2">
         <v>222.646</v>
@@ -1955,7 +2325,7 @@
         <v>31.03</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H12" s="2">
         <v>203470</v>
@@ -1966,13 +2336,13 @@
         <v>93</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E13" s="2">
         <v>237.627</v>
@@ -1981,7 +2351,7 @@
         <v>15.67</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H13" s="2">
         <v>109671</v>
@@ -1992,13 +2362,13 @@
         <v>94</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E14" s="2">
         <v>41.37</v>
@@ -2007,7 +2377,7 @@
         <v>83.07</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H14" s="2">
         <v>101219</v>
@@ -2018,13 +2388,13 @@
         <v>95</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E15" s="2">
         <v>103.06</v>
@@ -2033,7 +2403,7 @@
         <v>22.86</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H15" s="2">
         <v>69384</v>
@@ -2044,13 +2414,13 @@
         <v>96</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E16" s="2">
         <v>171.58</v>
@@ -2059,7 +2429,7 @@
         <v>22.86</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H16" s="2">
         <v>115502</v>
@@ -2070,13 +2440,13 @@
         <v>97</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E17" s="2">
         <v>13.912</v>
@@ -2085,7 +2455,7 @@
         <v>275.47</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H17" s="2">
         <v>112852</v>
@@ -2096,13 +2466,13 @@
         <v>98</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E18" s="2">
         <v>58.02</v>
@@ -2111,7 +2481,7 @@
         <v>63.47</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H18" s="2">
         <v>108464</v>
@@ -2122,13 +2492,13 @@
         <v>99</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E19" s="2">
         <v>181.356</v>
@@ -2137,7 +2507,7 @@
         <v>21.67</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H19" s="2">
         <v>115738</v>
@@ -2148,13 +2518,13 @@
         <v>101</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E20" s="2">
         <v>766.2</v>
@@ -2163,7 +2533,7 @@
         <v>11.96</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H20" s="2">
         <v>269850</v>
@@ -2174,13 +2544,13 @@
         <v>102</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E21" s="2">
         <v>23.751</v>
@@ -2189,7 +2559,7 @@
         <v>32.95</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="H21" s="2">
         <v>23089</v>
@@ -2200,13 +2570,13 @@
         <v>103</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E22" s="2">
         <v>77.02</v>
@@ -2215,7 +2585,7 @@
         <v>63.47</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H22" s="2">
         <v>143951</v>
@@ -2236,7 +2606,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C1" s="1">
         <v>2</v>
@@ -2253,7 +2623,7 @@
         <v>112</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C2" s="2">
         <v>2</v>
@@ -2270,10 +2640,10 @@
         <v>113</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>25</v>
@@ -2297,10 +2667,10 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>34</v>
@@ -2314,10 +2684,10 @@
         <v>118</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>34</v>
@@ -2331,10 +2701,10 @@
         <v>119</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>34</v>
@@ -2361,19 +2731,19 @@
         <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E1" s="1">
         <v>1215000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2384,19 +2754,19 @@
         <v>25</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E2" s="2">
         <v>1215000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2407,19 +2777,19 @@
         <v>25</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E3" s="2">
         <v>1500000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2430,19 +2800,19 @@
         <v>25</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E4" s="2">
         <v>2500000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2453,19 +2823,19 @@
         <v>25</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E5" s="2">
         <v>1500000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/江啟臣_2012-04-20_財產申報表_tmpe0681.xlsx
+++ b/legislator/property/output/normal/江啟臣_2012-04-20_財產申報表_tmpe0681.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="102">
   <si>
     <t>name</t>
   </si>
@@ -212,6 +212,15 @@
     <t>deposit</t>
   </si>
   <si>
+    <t>dealer</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>face_value</t>
+  </si>
+  <si>
     <t>聯博全球高收益債券基金AT</t>
   </si>
   <si>
@@ -263,7 +272,7 @@
     <t>匯豐（台灣）商業銀行</t>
   </si>
   <si>
-    <t>11.1.4</t>
+    <t>fund</t>
   </si>
   <si>
     <t>鑽戒</t>
@@ -273,6 +282,9 @@
   </si>
   <si>
     <t>60g</t>
+  </si>
+  <si>
+    <t>otherbonds</t>
   </si>
   <si>
     <t>中華郵政</t>
@@ -2016,41 +2028,62 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1" s="1">
-        <v>1408.268</v>
-      </c>
-      <c r="F1" s="1">
-        <v>4.47</v>
+      <c r="E1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H1" s="1">
-        <v>185386</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>47</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>82</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>34</v>
@@ -2070,13 +2103,34 @@
       <c r="H2" s="2">
         <v>185386</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1731</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O2" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>83</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>34</v>
@@ -2096,13 +2150,34 @@
       <c r="H3" s="2">
         <v>326617</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1731</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O3" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>84</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>34</v>
@@ -2122,13 +2197,34 @@
       <c r="H4" s="2">
         <v>292327</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1731</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O4" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>85</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>34</v>
@@ -2148,13 +2244,34 @@
       <c r="H5" s="2">
         <v>245215</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1731</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O5" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>86</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>34</v>
@@ -2174,13 +2291,34 @@
       <c r="H6" s="2">
         <v>77660</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1731</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O6" s="2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>87</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>25</v>
@@ -2200,13 +2338,34 @@
       <c r="H7" s="2">
         <v>60730</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M7" s="2">
+        <v>1731</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O7" s="2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>88</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>25</v>
@@ -2226,13 +2385,34 @@
       <c r="H8" s="2">
         <v>41430</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M8" s="2">
+        <v>1731</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O8" s="2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>89</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>25</v>
@@ -2243,8 +2423,8 @@
       <c r="E9" s="2">
         <v>299.4</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>80</v>
+      <c r="F9" s="2">
+        <v>11.14</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>61</v>
@@ -2252,13 +2432,34 @@
       <c r="H9" s="2">
         <v>98215</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M9" s="2">
+        <v>1731</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O9" s="2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>90</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>25</v>
@@ -2278,13 +2479,34 @@
       <c r="H10" s="2">
         <v>41023</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M10" s="2">
+        <v>1731</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O10" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>91</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>25</v>
@@ -2304,13 +2526,34 @@
       <c r="H11" s="2">
         <v>142479</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M11" s="2">
+        <v>1731</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O11" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>92</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>25</v>
@@ -2330,13 +2573,34 @@
       <c r="H12" s="2">
         <v>203470</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M12" s="2">
+        <v>1731</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O12" s="2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>93</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>25</v>
@@ -2356,13 +2620,34 @@
       <c r="H13" s="2">
         <v>109671</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M13" s="2">
+        <v>1731</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O13" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>94</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>25</v>
@@ -2382,13 +2667,34 @@
       <c r="H14" s="2">
         <v>101219</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="I14" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M14" s="2">
+        <v>1731</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O14" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>95</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>25</v>
@@ -2408,13 +2714,34 @@
       <c r="H15" s="2">
         <v>69384</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="I15" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M15" s="2">
+        <v>1731</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O15" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>96</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>25</v>
@@ -2434,13 +2761,34 @@
       <c r="H16" s="2">
         <v>115502</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="I16" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M16" s="2">
+        <v>1731</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O16" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>97</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>25</v>
@@ -2460,13 +2808,34 @@
       <c r="H17" s="2">
         <v>112852</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M17" s="2">
+        <v>1731</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O17" s="2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>98</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>25</v>
@@ -2486,13 +2855,34 @@
       <c r="H18" s="2">
         <v>108464</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M18" s="2">
+        <v>1731</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O18" s="2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>99</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>25</v>
@@ -2512,13 +2902,34 @@
       <c r="H19" s="2">
         <v>115738</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M19" s="2">
+        <v>1731</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O19" s="2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>101</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>25</v>
@@ -2538,13 +2949,34 @@
       <c r="H20" s="2">
         <v>269850</v>
       </c>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="I20" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M20" s="2">
+        <v>1731</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O20" s="2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>102</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>25</v>
@@ -2564,19 +2996,40 @@
       <c r="H21" s="2">
         <v>23089</v>
       </c>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="I21" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M21" s="2">
+        <v>1731</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O21" s="2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>103</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E22" s="2">
         <v>77.02</v>
@@ -2589,6 +3042,27 @@
       </c>
       <c r="H22" s="2">
         <v>143951</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M22" s="2">
+        <v>1731</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O22" s="2">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -2598,32 +3072,53 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C1" s="1">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="1">
-        <v>220000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1">
         <v>112</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C2" s="2">
         <v>2</v>
@@ -2634,22 +3129,64 @@
       <c r="E2" s="2">
         <v>220000</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1731</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" s="2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1">
         <v>113</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E3" s="2">
         <v>94080</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1731</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L3" s="2">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -2667,10 +3204,10 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>34</v>
@@ -2684,10 +3221,10 @@
         <v>118</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>34</v>
@@ -2701,10 +3238,10 @@
         <v>119</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>34</v>
@@ -2731,19 +3268,19 @@
         <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E1" s="1">
         <v>1215000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2754,19 +3291,19 @@
         <v>25</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E2" s="2">
         <v>1215000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2777,19 +3314,19 @@
         <v>25</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E3" s="2">
         <v>1500000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2800,19 +3337,19 @@
         <v>25</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E4" s="2">
         <v>2500000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2823,19 +3360,19 @@
         <v>25</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E5" s="2">
         <v>1500000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/江啟臣_2012-04-20_財產申報表_tmpe0681.xlsx
+++ b/legislator/property/output/normal/江啟臣_2012-04-20_財產申報表_tmpe0681.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="106">
   <si>
     <t>name</t>
   </si>
@@ -284,7 +284,10 @@
     <t>60g</t>
   </si>
   <si>
-    <t>otherbonds</t>
+    <t>antique</t>
+  </si>
+  <si>
+    <t>company</t>
   </si>
   <si>
     <t>中華郵政</t>
@@ -296,37 +299,46 @@
     <t>郵政簡易人壽六年期吉利保險</t>
   </si>
   <si>
+    <t>insurance</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
     <t>鉅達建設股份有限公司</t>
   </si>
   <si>
+    <t>兆祥建設股份有限公司</t>
+  </si>
+  <si>
+    <t>長榮久盟股份有限公司</t>
+  </si>
+  <si>
+    <t>兆崇建設股份有限公司</t>
+  </si>
+  <si>
     <t>新北市新店區北新路一段351號6樓</t>
   </si>
   <si>
+    <t>新北市新店區光明街156號</t>
+  </si>
+  <si>
     <t>95年10月26日</t>
   </si>
   <si>
+    <t>95年10月19日</t>
+  </si>
+  <si>
+    <t>92年09月01曰</t>
+  </si>
+  <si>
+    <t>99年04月01曰</t>
+  </si>
+  <si>
     <t>投資</t>
   </si>
   <si>
-    <t>兆祥建設股份有限公司</t>
-  </si>
-  <si>
-    <t>長榮久盟股份有限公司</t>
-  </si>
-  <si>
-    <t>兆崇建設股份有限公司</t>
-  </si>
-  <si>
-    <t>新北市新店區光明街156號</t>
-  </si>
-  <si>
-    <t>95年10月19日</t>
-  </si>
-  <si>
-    <t>92年09月01曰</t>
-  </si>
-  <si>
-    <t>99年04月01曰</t>
+    <t>investment</t>
   </si>
 </sst>
 </file>
@@ -3196,58 +3208,112 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>88</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1" s="1">
-        <v>333840</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>118</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="2">
-        <v>333840</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="E2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1731</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>119</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="2">
-        <v>328000</v>
+      <c r="E3" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1731</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" s="2">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -3257,33 +3323,54 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E1" s="1">
-        <v>1215000</v>
+        <v>93</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>93</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>134</v>
       </c>
@@ -3291,22 +3378,43 @@
         <v>25</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="E2" s="2">
         <v>1215000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>104</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1731</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" s="2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>135</v>
       </c>
@@ -3317,19 +3425,40 @@
         <v>95</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="E3" s="2">
         <v>1500000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>104</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1731</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N3" s="2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>136</v>
       </c>
@@ -3340,19 +3469,40 @@
         <v>96</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E4" s="2">
         <v>2500000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>104</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1731</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N4" s="2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>137</v>
       </c>
@@ -3363,16 +3513,37 @@
         <v>97</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E5" s="2">
         <v>1500000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L5" s="2">
+        <v>1731</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N5" s="2">
+        <v>137</v>
       </c>
     </row>
   </sheetData>
